--- a/anjou/부록_엑셀_이럴땐이렇게/1. 입력수정/4. 필터정렬/K마트 연도별 주요 카테고리 매출액.xlsx
+++ b/anjou/부록_엑셀_이럴땐이렇게/1. 입력수정/4. 필터정렬/K마트 연도별 주요 카테고리 매출액.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
-  <workbookPr defaultThemeVersion="202300"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gilbut\Desktop\예제\새 폴더\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Anjou_003\Documents\TIL\anjou\부록_엑셀_이럴땐이렇게\1. 입력수정\4. 필터정렬\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38FF1C1A-DF79-4CFC-8EEB-8750582D5331}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1534D282-650C-4596-B21F-3EC82BAC832B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22536" yWindow="3480" windowWidth="21180" windowHeight="16692" xr2:uid="{FDEEB86C-5647-4CE4-9542-F63C7DA8E6C7}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="28110" windowHeight="16440" xr2:uid="{FDEEB86C-5647-4CE4-9542-F63C7DA8E6C7}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -22,17 +22,6 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -582,18 +571,18 @@
   <dimension ref="B1:I13"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:H2"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="2.796875" customWidth="1"/>
-    <col min="2" max="2" width="7.796875" bestFit="1" customWidth="1"/>
-    <col min="3" max="8" width="15.296875" customWidth="1"/>
+    <col min="1" max="1" width="2.75" customWidth="1"/>
+    <col min="2" max="2" width="7.75" bestFit="1" customWidth="1"/>
+    <col min="3" max="8" width="15.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="2" spans="2:9" ht="28.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="2:9" ht="27.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B2" s="8" t="s">
         <v>0</v>
       </c>
@@ -604,205 +593,208 @@
       <c r="G2" s="8"/>
       <c r="H2" s="8"/>
     </row>
-    <row r="3" spans="2:9" ht="18" thickTop="1" x14ac:dyDescent="0.4"/>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.4">
+    <row r="3" spans="2:9" ht="17.25" thickTop="1" x14ac:dyDescent="0.3"/>
+    <row r="4" spans="2:9" x14ac:dyDescent="0.3">
       <c r="H4" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="2:9" ht="3" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="6" spans="2:9" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="2:9" ht="3" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="6" spans="2:9" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B6" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C6" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F6" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D6" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>6</v>
-      </c>
       <c r="G6" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H6" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="H6" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7" spans="2:9" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="7" spans="2:9" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B7" s="3" t="s">
         <v>9</v>
       </c>
       <c r="C7" s="4">
+        <v>29545525</v>
+      </c>
+      <c r="D7" s="4">
+        <v>2219025</v>
+      </c>
+      <c r="E7" s="4">
+        <v>6821655</v>
+      </c>
+      <c r="F7" s="4">
         <v>3529040</v>
       </c>
-      <c r="D7" s="4">
-        <v>6821655</v>
-      </c>
-      <c r="E7" s="4">
-        <v>29545525</v>
-      </c>
-      <c r="F7" s="4">
-        <v>2219025</v>
-      </c>
       <c r="G7" s="4">
+        <v>1387021</v>
+      </c>
+      <c r="H7" s="4">
         <v>906447</v>
       </c>
-      <c r="H7" s="4">
-        <v>1387021</v>
-      </c>
-    </row>
-    <row r="8" spans="2:9" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="8" spans="2:9" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B8" s="3" t="s">
         <v>10</v>
       </c>
       <c r="C8" s="4">
+        <v>27346382</v>
+      </c>
+      <c r="D8" s="4">
+        <v>2354990</v>
+      </c>
+      <c r="E8" s="4">
+        <v>7264354</v>
+      </c>
+      <c r="F8" s="4">
         <v>5362986</v>
       </c>
-      <c r="D8" s="4">
-        <v>7264354</v>
-      </c>
-      <c r="E8" s="4">
-        <v>27346382</v>
-      </c>
-      <c r="F8" s="4">
-        <v>2354990</v>
-      </c>
       <c r="G8" s="4">
+        <v>1691753</v>
+      </c>
+      <c r="H8" s="4">
         <v>842267</v>
       </c>
-      <c r="H8" s="4">
-        <v>1691753</v>
-      </c>
-    </row>
-    <row r="9" spans="2:9" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="9" spans="2:9" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B9" s="3" t="s">
         <v>11</v>
       </c>
       <c r="C9" s="4">
+        <v>22925285</v>
+      </c>
+      <c r="D9" s="4">
+        <v>2339153</v>
+      </c>
+      <c r="E9" s="4">
+        <v>7688618</v>
+      </c>
+      <c r="F9" s="4">
         <v>4261079</v>
       </c>
-      <c r="D9" s="4">
-        <v>7688618</v>
-      </c>
-      <c r="E9" s="4">
-        <v>22925285</v>
-      </c>
-      <c r="F9" s="4">
-        <v>2339153</v>
-      </c>
       <c r="G9" s="4">
+        <v>1112506</v>
+      </c>
+      <c r="H9" s="4">
         <v>942389</v>
       </c>
-      <c r="H9" s="4">
-        <v>1112506</v>
-      </c>
-    </row>
-    <row r="10" spans="2:9" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="10" spans="2:9" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B10" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C10" s="4">
+        <v>25453800</v>
+      </c>
+      <c r="D10" s="4">
+        <v>2905735</v>
+      </c>
+      <c r="E10" s="4">
+        <v>6539491</v>
+      </c>
+      <c r="F10" s="4">
         <v>5505239</v>
       </c>
-      <c r="D10" s="4">
-        <v>6539491</v>
-      </c>
-      <c r="E10" s="4">
-        <v>25453800</v>
-      </c>
-      <c r="F10" s="4">
-        <v>2905735</v>
-      </c>
       <c r="G10" s="4">
+        <v>1148464</v>
+      </c>
+      <c r="H10" s="4">
         <v>773878</v>
       </c>
-      <c r="H10" s="4">
-        <v>1148464</v>
-      </c>
-    </row>
-    <row r="11" spans="2:9" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="11" spans="2:9" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B11" s="3" t="s">
         <v>13</v>
       </c>
       <c r="C11" s="4">
+        <v>38320583</v>
+      </c>
+      <c r="D11" s="4">
+        <v>35871004</v>
+      </c>
+      <c r="E11" s="4">
+        <v>8385775</v>
+      </c>
+      <c r="F11" s="4">
         <v>6428775</v>
       </c>
-      <c r="D11" s="4">
-        <v>8385775</v>
-      </c>
-      <c r="E11" s="4">
-        <v>38320583</v>
-      </c>
-      <c r="F11" s="4">
-        <v>35871004</v>
-      </c>
       <c r="G11" s="4">
+        <v>1432821</v>
+      </c>
+      <c r="H11" s="4">
         <v>837939</v>
       </c>
-      <c r="H11" s="4">
-        <v>1432821</v>
-      </c>
-    </row>
-    <row r="12" spans="2:9" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="12" spans="2:9" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B12" s="3" t="s">
         <v>14</v>
       </c>
       <c r="C12" s="4">
+        <v>43945443</v>
+      </c>
+      <c r="D12" s="4">
+        <v>2405655</v>
+      </c>
+      <c r="E12" s="4">
+        <v>9531713</v>
+      </c>
+      <c r="F12" s="4">
         <v>7539395</v>
       </c>
-      <c r="D12" s="4">
-        <v>9531713</v>
-      </c>
-      <c r="E12" s="4">
-        <v>43945443</v>
-      </c>
-      <c r="F12" s="4">
-        <v>2405655</v>
-      </c>
       <c r="G12" s="4">
+        <v>2890034</v>
+      </c>
+      <c r="H12" s="4">
         <v>912024</v>
       </c>
-      <c r="H12" s="4">
-        <v>2890034</v>
-      </c>
-    </row>
-    <row r="13" spans="2:9" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="13" spans="2:9" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B13" s="5" t="s">
         <v>15</v>
       </c>
       <c r="C13" s="6">
-        <f t="shared" ref="C13:H13" si="0">SUM(C7:C12)</f>
+        <f>SUM(C7:C12)</f>
+        <v>187537018</v>
+      </c>
+      <c r="D13" s="6">
+        <f>SUM(D7:D12)</f>
+        <v>48095562</v>
+      </c>
+      <c r="E13" s="6">
+        <f>SUM(E7:E12)</f>
+        <v>46231606</v>
+      </c>
+      <c r="F13" s="6">
+        <f>SUM(F7:F12)</f>
         <v>32626514</v>
       </c>
-      <c r="D13" s="6">
-        <f t="shared" si="0"/>
-        <v>46231606</v>
-      </c>
-      <c r="E13" s="6">
-        <f t="shared" si="0"/>
-        <v>187537018</v>
-      </c>
-      <c r="F13" s="6">
-        <f t="shared" si="0"/>
-        <v>48095562</v>
-      </c>
       <c r="G13" s="6">
-        <f t="shared" si="0"/>
+        <f>SUM(G7:G12)</f>
+        <v>9662599</v>
+      </c>
+      <c r="H13" s="6">
+        <f>SUM(H7:H12)</f>
         <v>5214944</v>
       </c>
-      <c r="H13" s="6">
-        <f t="shared" si="0"/>
-        <v>9662599</v>
-      </c>
       <c r="I13" s="7"/>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" columnSort="1" ref="C6:H13">
+    <sortCondition descending="1" ref="C13:H13"/>
+  </sortState>
   <mergeCells count="1">
     <mergeCell ref="B2:H2"/>
   </mergeCells>
